--- a/60_experts/S4350_Checklist.xlsx
+++ b/60_experts/S4350_Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\60_experts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/AspIT_Python/60_experts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8128EBA2-C105-4C54-97E3-EECCDF5D6D40}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{15103A8D-95BA-4F5B-8AC3-8C3B26801A4C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="1" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
@@ -26,71 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Unittest</t>
-  </si>
-  <si>
-    <t>Comprehension</t>
-  </si>
-  <si>
-    <t>Magic Methods</t>
-  </si>
-  <si>
-    <t>Unpacking</t>
-  </si>
-  <si>
-    <t>Tuple Declaration, Strings and Tuples as Iterators</t>
-  </si>
-  <si>
-    <t>For Loop with 2 or more Iterators</t>
-  </si>
-  <si>
-    <t>Lambda Functions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>2. Avancerede koncepter for avancerede programmører</t>
   </si>
   <si>
-    <t>Generators</t>
-  </si>
-  <si>
-    <t>Asynchronous programming</t>
-  </si>
-  <si>
-    <t>Multiprocessing</t>
-  </si>
-  <si>
     <t>3. Tips &amp; Tricks</t>
   </si>
   <si>
-    <t>Working Directory</t>
-  </si>
-  <si>
-    <t>Display image</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Profiling</t>
-  </si>
-  <si>
-    <t>Inline If</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>Colored text</t>
-  </si>
-  <si>
     <t>1. Hyppigt anvendte elementer og begreber i Python</t>
   </si>
   <si>
@@ -101,6 +44,67 @@
   </si>
   <si>
     <t>Sæt en flueben foran hver emne efter du har arbejdet med det.</t>
+  </si>
+  <si>
+    <t>Sæt et flueben foran et emne, når du er færdig med det.
+ Tallene i parentes efter hvert emne er en anbefaling af det maksimale antal timer, du bør bruge på emnerne.</t>
+  </si>
+  <si>
+    <t>API (3)</t>
+  </si>
+  <si>
+    <t>Unittest (2)</t>
+  </si>
+  <si>
+    <t>Comprehension (1)</t>
+  </si>
+  <si>
+    <t>Magic Methods (1)</t>
+  </si>
+  <si>
+    <t>Unpacking (1)</t>
+  </si>
+  <si>
+    <t>Tuple Declaration, Strings and Tuples as Iterators (0,5)</t>
+  </si>
+  <si>
+    <t>For Loop with 2 or more Iterators (1)</t>
+  </si>
+  <si>
+    <t>Lambda Functions (1)</t>
+  </si>
+  <si>
+    <t>Import (1)</t>
+  </si>
+  <si>
+    <t>Inline If (1)</t>
+  </si>
+  <si>
+    <t>Generators (2)</t>
+  </si>
+  <si>
+    <t>Asynchronous programming (2)</t>
+  </si>
+  <si>
+    <t>Multiprocessing (2)</t>
+  </si>
+  <si>
+    <t>Working Directory (0,2)</t>
+  </si>
+  <si>
+    <t>Display image (0,2)</t>
+  </si>
+  <si>
+    <t>Time (1)</t>
+  </si>
+  <si>
+    <t>Profiling (0,5)</t>
+  </si>
+  <si>
+    <t>Colored text (0,5)</t>
+  </si>
+  <si>
+    <t>JSON (1,5)</t>
   </si>
 </sst>
 </file>
@@ -238,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +263,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bemærk!" xfId="1" builtinId="10"/>
@@ -576,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA821FB-FCD6-479D-97C2-B7414601757E}">
   <dimension ref="B1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -591,17 +596,17 @@
     </row>
     <row r="2" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
@@ -627,9 +632,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEB3CE-BCD5-4803-BEB5-39E1764B9DB3}">
-  <dimension ref="B1:C25"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
@@ -639,140 +644,145 @@
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="4"/>
       <c r="C5" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="4"/>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="4"/>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/60_experts/S4350_Checklist.xlsx
+++ b/60_experts/S4350_Checklist.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/AspIT_Python/60_experts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\60_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{15103A8D-95BA-4F5B-8AC3-8C3B26801A4C}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2C48BD96-9ED3-4225-B11B-B302D3AFAEFC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="1" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
   </bookViews>
   <sheets>
-    <sheet name="Start" sheetId="2" r:id="rId1"/>
-    <sheet name="Liste" sheetId="1" r:id="rId2"/>
+    <sheet name="Liste" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>2. Avancerede koncepter for avancerede programmører</t>
   </si>
@@ -37,81 +36,83 @@
     <t>1. Hyppigt anvendte elementer og begreber i Python</t>
   </si>
   <si>
-    <t>Udskriv den næste side "Liste".</t>
-  </si>
-  <si>
-    <t>Brug den som en tjekliste.</t>
-  </si>
-  <si>
-    <t>Sæt en flueben foran hver emne efter du har arbejdet med det.</t>
-  </si>
-  <si>
-    <t>Sæt et flueben foran et emne, når du er færdig med det.
- Tallene i parentes efter hvert emne er en anbefaling af det maksimale antal timer, du bør bruge på emnerne.</t>
-  </si>
-  <si>
-    <t>API (3)</t>
-  </si>
-  <si>
-    <t>Unittest (2)</t>
-  </si>
-  <si>
-    <t>Comprehension (1)</t>
-  </si>
-  <si>
-    <t>Magic Methods (1)</t>
-  </si>
-  <si>
-    <t>Unpacking (1)</t>
-  </si>
-  <si>
-    <t>Tuple Declaration, Strings and Tuples as Iterators (0,5)</t>
-  </si>
-  <si>
-    <t>For Loop with 2 or more Iterators (1)</t>
-  </si>
-  <si>
-    <t>Lambda Functions (1)</t>
-  </si>
-  <si>
-    <t>Import (1)</t>
-  </si>
-  <si>
-    <t>Inline If (1)</t>
-  </si>
-  <si>
-    <t>Generators (2)</t>
-  </si>
-  <si>
-    <t>Asynchronous programming (2)</t>
-  </si>
-  <si>
-    <t>Multiprocessing (2)</t>
-  </si>
-  <si>
-    <t>Working Directory (0,2)</t>
-  </si>
-  <si>
-    <t>Display image (0,2)</t>
-  </si>
-  <si>
-    <t>Time (1)</t>
-  </si>
-  <si>
-    <t>Profiling (0,5)</t>
-  </si>
-  <si>
-    <t>Colored text (0,5)</t>
-  </si>
-  <si>
-    <t>JSON (1,5)</t>
+    <t>du bør bruge på emnerne.</t>
+  </si>
+  <si>
+    <t>Tjekliste til avanceret Python</t>
+  </si>
+  <si>
+    <t>Unittest (1 - 2)</t>
+  </si>
+  <si>
+    <t>API (1 - 3)</t>
+  </si>
+  <si>
+    <t>Comprehension (0,5 - 1)</t>
+  </si>
+  <si>
+    <t>Magic Methods (0,5 - 1)</t>
+  </si>
+  <si>
+    <t>Unpacking (0,5 - 1)</t>
+  </si>
+  <si>
+    <t>Tuple Declaration, Strings and Tuples as Iterators (0,1 - 0,5)</t>
+  </si>
+  <si>
+    <t>For Loop with 2 or more Iterators (0,2 - 1)</t>
+  </si>
+  <si>
+    <t>Lambda Functions (0,5 - 1)</t>
+  </si>
+  <si>
+    <t>Import (0,5 - 1)</t>
+  </si>
+  <si>
+    <t>Inline If (0,3 - 1)</t>
+  </si>
+  <si>
+    <t>Generators (1 - 2)</t>
+  </si>
+  <si>
+    <t>Asynchronous programming (1 - 2)</t>
+  </si>
+  <si>
+    <t>Multiprocessing (1 - 2)</t>
+  </si>
+  <si>
+    <t>Working Directory (0,1 - 0,2)</t>
+  </si>
+  <si>
+    <t>Display image (0,1 - 0,2)</t>
+  </si>
+  <si>
+    <t>Time (0,3 - 1)</t>
+  </si>
+  <si>
+    <t>Profiling (0,2 - 0,5)</t>
+  </si>
+  <si>
+    <t>JSON (0,5 - 1,5)</t>
+  </si>
+  <si>
+    <t>Colored text (0,1 - 0,5)</t>
+  </si>
+  <si>
+    <t>Tallene i parentes efter hvert emne er en anbefaling af det antal timer,</t>
+  </si>
+  <si>
+    <t>Udskriv denne side.</t>
+  </si>
+  <si>
+    <t>Sæt et kryds foran et emne på din udskrift, når du er færdig med det.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,34 +136,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,88 +197,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bemærk!" xfId="1" builtinId="10"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,212 +545,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA821FB-FCD6-479D-97C2-B7414601757E}">
-  <dimension ref="B1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEB3CE-BCD5-4803-BEB5-39E1764B9DB3}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AEB3CE-BCD5-4803-BEB5-39E1764B9DB3}">
-  <dimension ref="B1:C26"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" style="11" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/60_experts/S4350_Checklist.xlsx
+++ b/60_experts/S4350_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\60_experts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2C48BD96-9ED3-4225-B11B-B302D3AFAEFC}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{F4DD83C2-D29A-4561-9E89-12EE7EA523BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EDFC1E96-79CB-4CA9-88B1-A82D54F600A9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{AA257D73-5351-48FA-A979-44EE05DA9560}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -660,7 +660,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="6"/>
       <c r="C11" s="10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -670,7 +670,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="6"/>
       <c r="C12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -680,7 +680,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -690,7 +690,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="6"/>
       <c r="C14" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -700,7 +700,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -710,7 +710,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="6"/>
       <c r="C16" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -720,7 +720,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -730,7 +730,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
